--- a/data/trans_bre/P16A02-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P16A02-Habitat-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>0.7217108549825788</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4384169836713629</v>
+        <v>0.4384169836713626</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>3.353599995389413</v>
+        <v>3.360349601718292</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.01973639499247</v>
+        <v>11.37392173048812</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8.742164195559516</v>
+        <v>9.194180845373866</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.267223886326035</v>
+        <v>7.379069402606733</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2264588230185766</v>
+        <v>0.2299017730640326</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5580312778985023</v>
+        <v>0.5626945543871256</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4136041470409098</v>
+        <v>0.4133416734958816</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2388726819078045</v>
+        <v>0.2360995722286299</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.30942768193189</v>
+        <v>11.05960952510248</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>20.75644265831052</v>
+        <v>20.45243105358665</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>18.46487252919443</v>
+        <v>18.82238960106583</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>16.71528531675691</v>
+        <v>16.73077097892187</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.023792093784336</v>
+        <v>1.030840388830182</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.32984495058143</v>
+        <v>1.338906885732615</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.107752660277889</v>
+        <v>1.129307467593007</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6727111307419461</v>
+        <v>0.6613878619781285</v>
       </c>
     </row>
     <row r="7">
@@ -749,7 +749,7 @@
         <v>0.4458169927414098</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.8194426353394817</v>
+        <v>0.8194426353394819</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.156055836266213</v>
+        <v>5.099789599297306</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.740878076050132</v>
+        <v>8.649058966324542</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.832463370935134</v>
+        <v>5.126704601214673</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13.15497003488025</v>
+        <v>13.47715907563071</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3481208091856187</v>
+        <v>0.3412288105657516</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4311075096739544</v>
+        <v>0.4079523135586257</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2224322208114706</v>
+        <v>0.2449872631848901</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5588139454281162</v>
+        <v>0.5685335218700429</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.86822520135985</v>
+        <v>12.08255373767529</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>16.27449142361392</v>
+        <v>16.79288007678448</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.16881508753378</v>
+        <v>12.85330155118369</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20.95658442087512</v>
+        <v>21.39647048206989</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.9800893670114873</v>
+        <v>1.030087670854309</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9499610343032208</v>
+        <v>0.9864649484867346</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.67882726905377</v>
+        <v>0.7251813630364683</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.107165521095521</v>
+        <v>1.114599090112561</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>9.515999773024737</v>
+        <v>9.881654569360144</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>10.76754187751006</v>
+        <v>10.93578899999538</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>9.396118551323266</v>
+        <v>9.263015293422857</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9.653012189418252</v>
+        <v>9.833339240701678</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6630101314322279</v>
+        <v>0.6785692380646063</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5683023183741739</v>
+        <v>0.5849311806472085</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5564759688868224</v>
+        <v>0.5537818963505843</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.3817878856100187</v>
+        <v>0.3948255338514484</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>17.71706644140408</v>
+        <v>18.01552030667413</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.76878146037859</v>
+        <v>20.11363600330689</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>17.87208684971775</v>
+        <v>17.88668440147061</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.57086967268657</v>
+        <v>18.58814737601191</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.656318274934591</v>
+        <v>1.725310131027828</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>1.409610269970034</v>
+        <v>1.42615657174323</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.357528989238096</v>
+        <v>1.402519965229841</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9429921842720634</v>
+        <v>0.9523150313624054</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.6464529326500164</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.6327571592038039</v>
+        <v>0.6327571592038044</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.449239568719495</v>
+        <v>6.677146203618384</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>14.4829041122234</v>
+        <v>14.80105175548432</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>9.423089988946179</v>
+        <v>9.546310205823328</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>11.96311053830504</v>
+        <v>11.55682692757184</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.340722776614021</v>
+        <v>0.3596261937042694</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7068999789338783</v>
+        <v>0.7318242090687567</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4088441097566564</v>
+        <v>0.4078438241647259</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.4480735405516095</v>
+        <v>0.428462958513588</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>13.82950661049075</v>
+        <v>13.43294427019959</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>22.54477846787476</v>
+        <v>22.78818600625579</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>17.54957310091424</v>
+        <v>17.59079171051307</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19.25784177864978</v>
+        <v>19.45797559371013</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.923511699623095</v>
+        <v>0.887491692236088</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.361223578374126</v>
+        <v>1.383929812595815</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9232994627794417</v>
+        <v>0.9164925564505721</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.8778647343615739</v>
+        <v>0.8715172907155819</v>
       </c>
     </row>
     <row r="16">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>8.005556235671209</v>
+        <v>8.009719072734732</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>13.57966768770014</v>
+        <v>13.66315904377864</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10.07474341605635</v>
+        <v>10.04853540987041</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13.22115591481453</v>
+        <v>13.16799462970986</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.5445189552257447</v>
+        <v>0.5378297878699331</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7093416892878137</v>
+        <v>0.7193392919707466</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.504699996945122</v>
+        <v>0.4985751381516247</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.5269072575424633</v>
+        <v>0.524935991318081</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>11.7522077349228</v>
+        <v>11.78248119447574</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>17.72246745686036</v>
+        <v>17.83739031300613</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.33309633048165</v>
+        <v>14.29955702265546</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>17.07420361257656</v>
+        <v>17.3989879979748</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8935465162126015</v>
+        <v>0.9158673469311975</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.057166938989583</v>
+        <v>1.058952046339517</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8037676523082425</v>
+        <v>0.8021727258040633</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.7586847899563234</v>
+        <v>0.7656725920231344</v>
       </c>
     </row>
     <row r="19">
